--- a/biology/Zoologie/Bois-veiné/Bois-veiné.xlsx
+++ b/biology/Zoologie/Bois-veiné/Bois-veiné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois-vein%C3%A9</t>
+          <t>Bois-veiné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notodonta ziczac
 Le Bois-veiné (Notodonta ziczac) est une espèce de lépidoptères (papillons) de la famille des Notodontidae, de la sous-famille des Notodontinae et du genre Notodonta.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois-vein%C3%A9</t>
+          <t>Bois-veiné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition : de l’Europe à l’Asie centrale.
 Envergure du mâle : 15 à 21 mm.
 Période de vol : d’avril à septembre en une ou deux générations.
 Habitat : peupleraies et oseraies.
-Plantes hôtes : Populus et Salix, parfois Betula et Quercus[1].</t>
+Plantes hôtes : Populus et Salix, parfois Betula et Quercus.</t>
         </is>
       </c>
     </row>
